--- a/examples/go_card_retailers/go_card_counters.xlsx
+++ b/examples/go_card_retailers/go_card_counters.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,12 +667,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Format Consistency</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Error: Mandatory field is BLANK or NULL. A value is required.</t>
+          <t>Error: Value '' does not match regex '^(\+|-)?(?:90(?:(?:\.0{1,6})?)|(?:[0-9]|[1-8][0-9])(?:(?:\.[0-9]{1,6})?))$'</t>
         </is>
       </c>
     </row>
@@ -701,19 +701,19 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Format Consistency</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Error: Mandatory field is BLANK or NULL. A value is required.</t>
+          <t>Error: Value '' does not match regex '^(\+|-)?(?:90(?:(?:\.0{1,6})?)|(?:[0-9]|[1-8][0-9])(?:(?:\.[0-9]{1,6})?))$'</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -730,17 +730,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Format Consistency</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Error: Mandatory field is BLANK or NULL. A value is required.</t>
+          <t>Error: Value '' does not match regex '^(\+|-)?(?:90(?:(?:\.0{1,6})?)|(?:[0-9]|[1-8][0-9])(?:(?:\.[0-9]{1,6})?))$'</t>
         </is>
       </c>
     </row>
@@ -769,19 +769,19 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Format Consistency</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Error: Mandatory field is BLANK or NULL. A value is required.</t>
+          <t>Error: Value '' does not match regex '^(\+|-)?(?:180(?:(?:\.0{1,6})?)|(?:[0-9]|[1-9][0-9]|1[0-7][0-9])(?:(?:\.[0-9]{1,6})?))$'</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>type_id</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -798,24 +798,24 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>type_id</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Format Consistency</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Error: Value '' is not an int. An int was expected</t>
+          <t>Error: Value '' does not match regex '^(\+|-)?(?:180(?:(?:\.0{1,6})?)|(?:[0-9]|[1-9][0-9]|1[0-7][0-9])(?:(?:\.[0-9]{1,6})?))$'</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>type_id</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -832,17 +832,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>type_id</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Format Consistency</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Error: Value '' is not an int. An int was expected</t>
+          <t>Error: Value '' does not match regex '^(\+|-)?(?:180(?:(?:\.0{1,6})?)|(?:[0-9]|[1-9][0-9]|1[0-7][0-9])(?:(?:\.[0-9]{1,6})?))$'</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>type_name</t>
+          <t>type_id</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -900,34 +900,204 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>type_name</t>
+          <t>type_id</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Meta Compliance (data type)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Error: Mandatory field is BLANK or NULL. A value is required.</t>
+          <t>Error: Value '' is not an int. An int was expected</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>type_id</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Completeness of Mandatory fields</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Error: Mandatory field is BLANK or NULL. A value is required.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>type_id</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Meta Compliance (data type)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Error: Value '' is not an int. An int was expected</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
           <t>type_name</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Completeness of Mandatory fields</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Error: Mandatory field is BLANK or NULL. A value is required.</t>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Completeness of Mandatory fields</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Error: Mandatory field is BLANK or NULL. A value is required.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>type_name</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Completeness of Mandatory fields</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Error: Mandatory field is BLANK or NULL. A value is required.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>type_name</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Completeness of Mandatory fields</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Error: Mandatory field is BLANK or NULL. A value is required.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>product1</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Meta Compliance (enumeration)</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Error: Value '225' is outside the enumeration set '['go card','Gold Coast go explore card','Visitor Information Pack','SEEQ card']'</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>product2</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Meta Compliance (enumeration)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Error: Value '773' is outside the enumeration set '['go card','Gold Coast go explore card','Visitor Information Pack','SEEQ card']'</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>product3</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Meta Compliance (enumeration)</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Error: Value '859' is outside the enumeration set '['go card','Gold Coast go explore card','Visitor Information Pack','SEEQ card']'</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>service1</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Meta Compliance (enumeration)</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Error: Value '87' is outside the enumeration set '['Buy', 'Change expiry date', 'Top up', 'Refund', 'Register']'</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>service2</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Meta Compliance (enumeration)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Error: Value '495' is outside the enumeration set '['Buy', 'Change expiry date', 'Top up', 'Refund', 'Register']'</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>service3</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Meta Compliance (enumeration)</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Error: Value '546' is outside the enumeration set '['Buy', 'Change expiry date', 'Top up', 'Refund', 'Register']'</t>
         </is>
       </c>
     </row>
